--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R01A 2#制袋工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R01A 2#制袋工序生产指令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,79 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>产品代码（规格型号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>批</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
   </si>
   <si>
     <t>计划产量
@@ -128,19 +59,6 @@
   </si>
   <si>
     <t>领料量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>负责人</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -165,235 +83,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品名称：医药包装用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tyvek/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聚乙烯洁净袋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Cleansteam Bag</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产指令编号：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产工艺：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QB/SPM-TR-06</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产设备：制袋机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AA-EQU-001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划生产日期：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内包装规格
-（只</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物料代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Tyvek</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印刷卷材</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药品包装用聚乙烯膜（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>XP1)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蒸汽灭菌指示剂</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -414,143 +115,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>箱</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>记</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>制袋工序记录、内包记录、外包记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -571,226 +144,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接收人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编制人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审批人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内包装袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称：医药包装用Tyvek/聚乙烯洁净袋  Cleansteam Bag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产设备：制袋机 AA-EQU-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工艺：QB/SPM-TR-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编制人：                年     月     日 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人：                       年      月      日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收人：              年      月     日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产  品 批 号</t>
+  </si>
+  <si>
+    <t>内包装规格
+（只/包)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">外标签 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记  录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyvek印刷卷材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品包装用聚乙烯膜（XP1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽灭菌指示剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备  注：
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划生产日期：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,20 +271,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -867,6 +284,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -883,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1354,21 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1568,6 +986,46 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1576,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,280 +1050,295 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2248,31 +1721,31 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="2.375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="12"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2283,320 +1756,307 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="28" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="89">
         <v>1</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="24" t="s">
-        <v>11</v>
+      <c r="I7" s="75"/>
+      <c r="J7" s="77" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="73"/>
+      <c r="A8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="74"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="100"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="74"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="100"/>
     </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="90" t="s">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="100"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="99"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="100"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="27" t="s">
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="31" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="75"/>
-    </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="89"/>
-    </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="75"/>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+  <mergeCells count="39">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -2605,32 +2065,39 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"边封"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"底封"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"边封"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"底封"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"边封"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"底封"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.61" right="0.42" top="0.51" bottom="0.22" header="0.31496062992125984" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R01A 2#制袋工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R01A 2#制袋工序生产指令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>产品代码（规格型号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
   <si>
     <t>计划产量
@@ -30,18 +99,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>封边</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外包规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>订单号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -62,6 +123,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负责人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>制袋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,10 +157,122 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产指令编号：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产工艺：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QB/SPM-TR-06</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产设备：制袋机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AA-EQU-001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划生产日期：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内包装规格
+（只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>物料代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,6 +281,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒸汽灭菌指示剂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>内包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -115,15 +327,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>张</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>箱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>制袋工序记录、内包记录、外包记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -144,84 +484,426 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接收人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编制人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审批人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>内包装袋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品名称：医药包装用Tyvek/聚乙烯洁净袋  Cleansteam Bag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产设备：制袋机 AA-EQU-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产工艺：QB/SPM-TR-06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">编制人：                年     月     日 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人：                       年      月      日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收人：              年      月     日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产  品 批 号</t>
-  </si>
-  <si>
-    <t>内包装规格
-（只/包)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">外标签 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记  录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tyvek印刷卷材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>药品包装用聚乙烯膜（XP1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸汽灭菌指示剂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">备  注：
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产指令编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划生产日期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只</t>
+    <t>药品包装用聚乙烯膜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPM-SI-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM-LAB-7×10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM-LAB-10×10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外包规格
+（只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>箱）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tyvek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷材</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品名称：医药包装用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tyvek/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚乙烯洁净袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Cleansteam Bag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产指令中产品代码可以有两种或以上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联产品，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如包装袋，或一步生产两个规格以上产品</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令可修改，修改最后一版为最终版</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -271,6 +953,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -285,24 +981,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +995,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -787,7 +1473,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -989,43 +1677,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1034,7 +1697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,296 +1713,293 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1721,26 +2381,26 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="12" customWidth="1"/>
     <col min="11" max="11" width="2.375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="12" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1760,303 +2420,317 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="89">
+      <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="90"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="75" t="s">
+      <c r="I7" s="77"/>
+      <c r="J7" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="77" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="99"/>
+      <c r="B8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="100"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="55"/>
+      <c r="B12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="55"/>
+      <c r="B14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="100"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="100"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="101"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="99"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="100"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="101"/>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="34">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -2065,14 +2739,12 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -2083,21 +2755,42 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"边封"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"底封"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"边封"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"底封"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"边封"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"底封"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.61" right="0.42" top="0.51" bottom="0.22" header="0.31496062992125984" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
